--- a/Template/Export/Sari_R5_18.xlsx
+++ b/Template/Export/Sari_R5_18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="793"/>
   </bookViews>
   <sheets>
     <sheet name="Global semana epidemiologica" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="Inf A" sheetId="6" r:id="rId5"/>
     <sheet name="Inf B" sheetId="5" r:id="rId6"/>
     <sheet name="Metapnemovirus" sheetId="9" r:id="rId7"/>
+    <sheet name="SARS-CoV-2" sheetId="11" r:id="rId8"/>
+    <sheet name="Parameters" sheetId="10" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="42">
   <si>
     <t>Ad</t>
   </si>
@@ -95,12 +97,69 @@
   <si>
     <t>AÑO EPIDEM.</t>
   </si>
+  <si>
+    <t>ILI</t>
+  </si>
+  <si>
+    <t>SARI</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Hoja Global Resumen</t>
+  </si>
+  <si>
+    <t>Global semana epidemiologica</t>
+  </si>
+  <si>
+    <t>Hoja virus VRS</t>
+  </si>
+  <si>
+    <t>VRS</t>
+  </si>
+  <si>
+    <t>Hoja virus Ad</t>
+  </si>
+  <si>
+    <t>Hoja virus Parainfluenza</t>
+  </si>
+  <si>
+    <t>Parainfluenza</t>
+  </si>
+  <si>
+    <t>Hoja virus Inf A</t>
+  </si>
+  <si>
+    <t>Hoja virus Inf B</t>
+  </si>
+  <si>
+    <t>Hoja virus Metapnemovirus</t>
+  </si>
+  <si>
+    <t>Metapnemovirus</t>
+  </si>
+  <si>
+    <t>Hoja virus SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>St. Lucia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -133,6 +192,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -179,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -555,19 +625,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -796,11 +853,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -843,19 +1012,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,29 +1100,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -979,11 +1133,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,37 +1143,40 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1031,63 +1185,318 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1389,9 +1798,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q11"/>
+  <dimension ref="A2:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1405,222 +1817,271 @@
     <col min="18" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="str">
+        <f>Parameters!$B$11 &amp; ": " &amp; Parameters!$C$11</f>
+        <v>Country: St. Lucia</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="99"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="103" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="P7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="R7" s="35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="82"/>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="S7" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="114"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="122"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="134"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="12">
         <f>SUM(B8:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="19">
-        <f t="shared" ref="C11:I11" si="0">SUM(C8:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="44">
-        <f>SUM(J8:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="44">
+      <c r="C11" s="16">
+        <f t="shared" ref="C11:J11" si="0">SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="107">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="108">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="109">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="45">
         <f>SUM(K8:K10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="49">
-        <f t="shared" ref="L11:Q11" si="1">SUM(L8:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="49">
+      <c r="L11" s="40">
+        <f>SUM(L8:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="41">
+        <f t="shared" ref="M11:S11" si="1">SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="49">
+      <c r="O11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="49">
+      <c r="P11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="49">
+      <c r="Q11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="R11" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S11" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="A2:S2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1633,7 +2094,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1648,39 +2112,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" s="35" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+    </row>
+    <row r="7" spans="1:21" s="31" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1704,10 +2198,10 @@
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -1719,107 +2213,107 @@
       <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="82"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
     </row>
     <row r="9" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="96"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="90"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="44">
         <f t="shared" ref="B11:U11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
@@ -1859,50 +2353,52 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="47">
+      <c r="L11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1913,7 +2409,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1928,42 +2427,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" s="36" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+    </row>
+    <row r="7" spans="1:21" s="32" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1984,10 +2513,10 @@
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -1999,107 +2528,107 @@
       <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
     </row>
     <row r="9" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <f t="shared" ref="B11:U11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
@@ -2139,15 +2668,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="42">
+      <c r="L11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2175,14 +2704,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2193,7 +2724,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2208,42 +2742,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+    </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2264,10 +2828,10 @@
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -2279,107 +2843,107 @@
       <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
     </row>
     <row r="9" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <f t="shared" ref="B11:U11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
@@ -2419,15 +2983,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="42">
+      <c r="L11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2455,14 +3019,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2472,7 +3038,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2487,42 +3056,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+    </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2543,10 +3142,10 @@
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -2558,107 +3157,107 @@
       <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
     </row>
     <row r="9" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <f t="shared" ref="B11:U11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
@@ -2698,15 +3297,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="42">
+      <c r="L11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2734,14 +3333,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2751,7 +3352,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2766,42 +3370,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+    </row>
     <row r="7" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2822,10 +3456,10 @@
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -2837,107 +3471,107 @@
       <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="89"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="82"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
     </row>
     <row r="9" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <f t="shared" ref="B11:U11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
@@ -2977,15 +3611,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="42">
+      <c r="L11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3013,14 +3647,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3030,12 +3666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="11" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -3048,41 +3687,71 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>22</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="6" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+    </row>
     <row r="7" spans="1:21" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3106,10 +3775,10 @@
       <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="30" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -3121,107 +3790,107 @@
       <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="32"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="61"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <f t="shared" ref="B11:U11" si="0">SUM(B8:B10)</f>
         <v>0</v>
       </c>
@@ -3261,15 +3930,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="42">
+      <c r="L11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3297,16 +3966,441 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:Q2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" style="136" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="188" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="136" customWidth="1"/>
+    <col min="4" max="11" width="9.28515625" style="136" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="136" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="136" customWidth="1"/>
+    <col min="14" max="21" width="9.28515625" style="136" customWidth="1"/>
+    <col min="22" max="254" width="11.42578125" style="136" customWidth="1"/>
+    <col min="255" max="16384" width="9.140625" style="136"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="136"/>
+    </row>
+    <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="138" t="str">
+        <f>Parameters!$B$11 &amp; ": " &amp; Parameters!$C$11</f>
+        <v>Country: St. Lucia</v>
+      </c>
+      <c r="B3" s="136"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="136"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="136"/>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="144"/>
+    </row>
+    <row r="7" spans="1:21" s="146" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="160" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="147"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="158"/>
+      <c r="U8" s="159"/>
+    </row>
+    <row r="9" spans="1:21" s="165" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+    </row>
+    <row r="10" spans="1:21" s="160" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="166"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="177"/>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="179">
+        <f t="shared" ref="B11:U11" si="0">SUM(B8:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="180">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="181">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="182">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="184">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="184">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="185">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="186">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="186">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="186">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="186">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="186">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="186">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="187">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="A2:U2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="136"/>
+    <col min="2" max="2" width="25" style="136" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="136" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="136"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="136" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>